--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="18465" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -27,15 +26,6 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
     <t>Test4</t>
   </si>
   <si>
@@ -46,13 +36,76 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>FindFriendTest</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Data_Flag</t>
+  </si>
+  <si>
+    <t>syed@hotmail.com</t>
+  </si>
+  <si>
+    <t>FindFriend</t>
+  </si>
+  <si>
+    <t>FriendName</t>
+  </si>
+  <si>
+    <t>PassWordChange</t>
+  </si>
+  <si>
+    <t>OldPassword</t>
+  </si>
+  <si>
+    <t>NewPassoword</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>UploadPic</t>
+  </si>
+  <si>
+    <t>user123</t>
+  </si>
+  <si>
+    <t>Sadia</t>
+  </si>
+  <si>
+    <t>Suraiya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +120,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,16 +179,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,12 +495,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
@@ -448,47 +519,47 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -499,24 +570,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>